--- a/refined_divisions/test_4.xlsx
+++ b/refined_divisions/test_4.xlsx
@@ -722,14 +722,14 @@
       <c r="D13" s="11" t="n"/>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="3" t="n"/>
-      <c r="G13" s="29" t="n"/>
+      <c r="G13" s="29" t="inlineStr"/>
       <c r="H13" s="30" t="n"/>
     </row>
     <row r="14">
       <c r="C14" s="11" t="n"/>
       <c r="D14" s="11" t="n"/>
       <c r="E14" s="4" t="n"/>
-      <c r="G14" s="31" t="n"/>
+      <c r="G14" s="31" t="inlineStr"/>
       <c r="H14" s="32" t="n"/>
     </row>
     <row r="15">
@@ -821,14 +821,14 @@
       <c r="D23" s="11" t="n"/>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="3" t="n"/>
-      <c r="G23" s="33" t="n"/>
+      <c r="G23" s="33" t="inlineStr"/>
       <c r="H23" s="30" t="n"/>
     </row>
     <row r="24">
       <c r="C24" s="11" t="n"/>
       <c r="D24" s="11" t="n"/>
       <c r="E24" s="4" t="n"/>
-      <c r="G24" s="34" t="n"/>
+      <c r="G24" s="34" t="inlineStr"/>
       <c r="H24" s="32" t="n"/>
     </row>
     <row r="25">
